--- a/ten year regression data.xlsx
+++ b/ten year regression data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DerekS\My Projects\Python\Meeder1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3536C3C1-7D3C-47D2-97B1-0AA1C7A588D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3371DAE6-4A82-41B4-8CAC-0DBA1A7F63F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>5-Year, 5-Year Forward Inflation Expectation Rate</t>
   </si>
@@ -98,11 +98,17 @@
   <si>
     <t>0.8-1.0</t>
   </si>
+  <si>
+    <t>Average Residual in Percentile Bucket (bps)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,6 +121,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -245,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -281,6 +288,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,6 +307,1000 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 Week Forward Return</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$H$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0-0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2-0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4-0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6-0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8-1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-7.717948717948721E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.3333333333333309E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.6730769230769247E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333284E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.961538461538459E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A88-43FC-8F44-F8D57508EDEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="907409231"/>
+        <c:axId val="907408751"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="907409231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="907408751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="907408751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="907409231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A7F829-57C6-BFF9-A6F2-49DB14BC0C85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K783"/>
   <sheetViews>
-    <sheetView topLeftCell="A749" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K783"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +1773,7 @@
         <v>2.0000000000000052E-4</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K4:K67" si="2">-J5*10</f>
+        <f t="shared" ref="K5:K67" si="2">-J5*10</f>
         <v>-2.0000000000000052E-3</v>
       </c>
     </row>
@@ -30347,7 +31351,7 @@
   <dimension ref="A1:L783"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30355,7 +31359,7 @@
     <col min="1" max="1" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -30503,6 +31507,29 @@
         <f t="shared" si="1"/>
         <v>-5.0000000000000044E-3</v>
       </c>
+      <c r="G5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="15">
+        <f>AVERAGEIFS($C$3:$C$783,$D$3:$D$783,"&gt;=0",$D$3:$D$783,"&lt;0.2")/100</f>
+        <v>-2.6489300430319069E-3</v>
+      </c>
+      <c r="I5" s="15">
+        <f>AVERAGEIFS($C$3:$C$783,$D$3:$D$783,"&gt;=0.2",$D$3:$D$783,"&lt;0.4")/100</f>
+        <v>-1.1911189814023228E-3</v>
+      </c>
+      <c r="J5" s="15">
+        <f>AVERAGEIFS($C$3:$C$783,$D$3:$D$783,"&gt;=0.4",$D$3:$D$783,"&lt;0.6")/100</f>
+        <v>4.7001000888276702E-6</v>
+      </c>
+      <c r="K5" s="15">
+        <f>AVERAGEIFS($C$3:$C$783,$D$3:$D$783,"&gt;=0.6",$D$3:$D$783,"&lt;0.8")/100</f>
+        <v>1.0438710934814331E-3</v>
+      </c>
+      <c r="L5" s="15">
+        <f>AVERAGEIFS($C$3:$C$783,$D$3:$D$783,"&gt;=0.8",$D$3:$D$783,"&lt;1")/100</f>
+        <v>2.7589762705223747E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -45288,5 +46315,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>